--- a/modele/production.xlsx
+++ b/modele/production.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DCA4E3-352F-4A42-82BB-89F70E445B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E350E91-9DE8-43FC-A907-916A2679C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="2" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="47" r:id="rId1"/>
@@ -368,6 +368,93 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -375,93 +462,6 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,56 +477,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{925A25D4-29D8-402B-A8D3-4B58CFB19401}" name="modele" displayName="modele" ref="A1:J12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{925A25D4-29D8-402B-A8D3-4B58CFB19401}" name="modele" displayName="modele" ref="A1:J12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:J12" xr:uid="{925A25D4-29D8-402B-A8D3-4B58CFB19401}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
     <sortCondition ref="B1:B12"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{12225B22-760A-45C9-B242-F21463162894}" name="domaine" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{96B467ED-C2E7-4CA1-A7AA-2CFE939A6EB1}" name="scope" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B17C29DB-2FBD-445C-8CC9-9EF1EA584668}" name="variable" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{FAA0F6DC-A415-4272-B4C3-0AFD3CA439D5}" name="description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FF5AD07C-1A33-4C68-926D-13190895D403}" name="type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5A9B3CCC-42B8-44B1-9F97-CEB874D4CB41}" name="format" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3A29F1DA-D36C-493B-8DEA-BE0174940BD0}" name="unite" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1FD20F60-AEF2-4BF1-B496-74B327A69431}" name="statut" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{35BD599E-6391-4559-950A-73E31EFF92AA}" name="nullable" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{614B3710-9618-4054-BC14-38340E055BF2}" name="opendata_xpath" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{12225B22-760A-45C9-B242-F21463162894}" name="domaine" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{96B467ED-C2E7-4CA1-A7AA-2CFE939A6EB1}" name="scope" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B17C29DB-2FBD-445C-8CC9-9EF1EA584668}" name="variable" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{FAA0F6DC-A415-4272-B4C3-0AFD3CA439D5}" name="description" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{FF5AD07C-1A33-4C68-926D-13190895D403}" name="type" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{5A9B3CCC-42B8-44B1-9F97-CEB874D4CB41}" name="format" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{3A29F1DA-D36C-493B-8DEA-BE0174940BD0}" name="unite" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{1FD20F60-AEF2-4BF1-B496-74B327A69431}" name="statut" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{35BD599E-6391-4559-950A-73E31EFF92AA}" name="nullable" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{614B3710-9618-4054-BC14-38340E055BF2}" name="opendata_xpath" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6F01CF8-9D6A-465F-A6A6-E8D0C17FEF15}" name="correspondance" displayName="correspondance" ref="A1:F50" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6F01CF8-9D6A-465F-A6A6-E8D0C17FEF15}" name="correspondance" displayName="correspondance" ref="A1:F50" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:F50" xr:uid="{D6F01CF8-9D6A-465F-A6A6-E8D0C17FEF15}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="E1:E10"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="8" xr3:uid="{D51B8DC4-4EBB-4BC1-8D77-150A408B892D}" name="table" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{A73E090B-365B-423C-A94D-B7C421E902CF}" name="table_id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{E6BC496D-7AF8-44C4-93B7-90EBE6C813A3}" name="table_description" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{ACE95C2F-D418-4390-B04C-77FEAC60E36B}" name="enum" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{4B3BC93C-FCDA-4EC5-90C6-B0AD87366CF5}" name="attribut" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{6D710119-C5D4-4336-82B9-4B559A9C01BD}" name="valeur" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{D51B8DC4-4EBB-4BC1-8D77-150A408B892D}" name="table" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{A73E090B-365B-423C-A94D-B7C421E902CF}" name="table_id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E6BC496D-7AF8-44C4-93B7-90EBE6C813A3}" name="table_description" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{ACE95C2F-D418-4390-B04C-77FEAC60E36B}" name="enum" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{4B3BC93C-FCDA-4EC5-90C6-B0AD87366CF5}" name="attribut" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{6D710119-C5D4-4336-82B9-4B559A9C01BD}" name="valeur" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED8D026E-0827-403B-B54C-75AA6897A47E}" name="kpv" displayName="kpv" ref="A1:G19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED8D026E-0827-403B-B54C-75AA6897A47E}" name="kpv" displayName="kpv" ref="A1:G19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G19" xr:uid="{ED8D026E-0827-403B-B54C-75AA6897A47E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7BD882D7-6805-4C83-B571-7DBD0835EF89}" name="orientation_pv[gt]" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{665AC3D5-0F22-428C-9878-E8F2C69C53DA}" name="orientation_pv[gte]" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1F09E3C5-9B9A-412A-A5D4-7FCEC47D0369}" name="orientation_pv[lt]" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{0682C17B-74D3-4931-816E-CF86760576E4}" name="orientation_pv[lte]" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{F3BDB4F9-4FB0-4D30-84E8-7E4DAB3F8AA0}" name="inclinaison_pv[gt]" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{FF74E927-ECB1-4466-85EA-FEDBC06AB8E3}" name="inclinaison_pv[lte]" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{DCD72E1A-1460-43EE-AAE9-1D8CED361B8D}" name="kpv" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7BD882D7-6805-4C83-B571-7DBD0835EF89}" name="orientation_pv[gt]" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{665AC3D5-0F22-428C-9878-E8F2C69C53DA}" name="orientation_pv[gte]" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1F09E3C5-9B9A-412A-A5D4-7FCEC47D0369}" name="orientation_pv[lt]" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{0682C17B-74D3-4931-816E-CF86760576E4}" name="orientation_pv[lte]" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F3BDB4F9-4FB0-4D30-84E8-7E4DAB3F8AA0}" name="inclinaison_pv[gt]" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FF74E927-ECB1-4466-85EA-FEDBC06AB8E3}" name="inclinaison_pv[lte]" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DCD72E1A-1460-43EE-AAE9-1D8CED361B8D}" name="kpv" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E28279-B77B-4C3C-B16A-E85B922426D8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473CBCE1-6003-45A5-AD83-F4773DF78575}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,8 +2182,8 @@
       <c r="B3" s="1">
         <v>67.5</v>
       </c>
-      <c r="C3" s="1">
-        <v>112.5</v>
+      <c r="D3" s="1">
+        <v>292.5</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
